--- a/data/raw/Wrack_Percent_Cover_Raw_Data.xlsx
+++ b/data/raw/Wrack_Percent_Cover_Raw_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frankiegerraty/Documents/!UC Santa Cruz/Research/2022 Summer Sitka/Kelp Wrack/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GERRATY/Fucus_Wrack/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA603325-1670-F34A-BA9E-807CC2FFFB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62AA779E-FBE5-8B41-BC10-CF6B287216E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="500" windowWidth="27640" windowHeight="15800" xr2:uid="{8273964F-87C3-5943-BE94-E580E2FCBB5E}"/>
   </bookViews>
@@ -121,9 +121,6 @@
     <t>Eagle</t>
   </si>
   <si>
-    <t>Site_Name</t>
-  </si>
-  <si>
     <t>Site_Number</t>
   </si>
   <si>
@@ -234,6 +231,9 @@
   <si>
     <t>Fish (Capelin)</t>
   </si>
+  <si>
+    <t>Site</t>
+  </si>
 </sst>
 </file>
 
@@ -307,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -318,7 +318,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,7 +636,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G581" sqref="G581:H581"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -658,42 +657,42 @@
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -729,7 +728,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -765,7 +764,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -801,7 +800,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -837,7 +836,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -873,7 +872,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -909,7 +908,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -945,7 +944,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -981,7 +980,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1017,7 +1016,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -8415,10 +8414,10 @@
         <v>20</v>
       </c>
       <c r="G218" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H218" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I218">
         <v>6.9950000000000001</v>
@@ -8649,7 +8648,7 @@
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B225">
         <v>6</v>
@@ -8685,7 +8684,7 @@
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B226">
         <v>6</v>
@@ -8721,7 +8720,7 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B227">
         <v>6</v>
@@ -8757,7 +8756,7 @@
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B228">
         <v>6</v>
@@ -8793,7 +8792,7 @@
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B229">
         <v>6</v>
@@ -8811,10 +8810,10 @@
         <v>20</v>
       </c>
       <c r="G229" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H229" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I229">
         <v>0.99199999999999999</v>
@@ -8829,7 +8828,7 @@
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B230">
         <v>6</v>
@@ -8865,7 +8864,7 @@
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B231">
         <v>6</v>
@@ -8901,7 +8900,7 @@
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B232">
         <v>6</v>
@@ -8937,7 +8936,7 @@
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B233">
         <v>6</v>
@@ -8973,7 +8972,7 @@
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B234">
         <v>6</v>
@@ -9009,7 +9008,7 @@
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B235">
         <v>6</v>
@@ -9045,7 +9044,7 @@
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B236">
         <v>6</v>
@@ -9081,7 +9080,7 @@
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B237">
         <v>6</v>
@@ -9117,7 +9116,7 @@
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B238">
         <v>6</v>
@@ -9153,7 +9152,7 @@
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B239">
         <v>6</v>
@@ -9189,7 +9188,7 @@
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B240">
         <v>6</v>
@@ -9225,7 +9224,7 @@
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B241">
         <v>6</v>
@@ -9261,7 +9260,7 @@
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B242">
         <v>6</v>
@@ -9297,7 +9296,7 @@
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B243">
         <v>6</v>
@@ -9333,7 +9332,7 @@
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B244">
         <v>6</v>
@@ -9369,7 +9368,7 @@
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B245">
         <v>6</v>
@@ -9405,7 +9404,7 @@
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B246">
         <v>6</v>
@@ -9423,10 +9422,10 @@
         <v>20</v>
       </c>
       <c r="G246" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H246" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I246">
         <v>4.6420000000000003</v>
@@ -9441,7 +9440,7 @@
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B247">
         <v>6</v>
@@ -9459,10 +9458,10 @@
         <v>20</v>
       </c>
       <c r="G247" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H247" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I247">
         <v>4.7270000000000003</v>
@@ -9477,7 +9476,7 @@
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B248">
         <v>6</v>
@@ -9513,7 +9512,7 @@
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B249">
         <v>6</v>
@@ -9549,7 +9548,7 @@
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B250">
         <v>6</v>
@@ -9585,7 +9584,7 @@
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B251">
         <v>6</v>
@@ -9603,10 +9602,10 @@
         <v>20</v>
       </c>
       <c r="G251" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H251" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I251">
         <v>7.1719999999999997</v>
@@ -9621,7 +9620,7 @@
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B252">
         <v>6</v>
@@ -9657,7 +9656,7 @@
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B253">
         <v>6</v>
@@ -9675,10 +9674,10 @@
         <v>20</v>
       </c>
       <c r="G253" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H253" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I253">
         <v>12.41</v>
@@ -9693,7 +9692,7 @@
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B254">
         <v>6</v>
@@ -9729,7 +9728,7 @@
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B255">
         <v>6</v>
@@ -9765,7 +9764,7 @@
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B256">
         <v>6</v>
@@ -9801,7 +9800,7 @@
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B257">
         <v>6</v>
@@ -9837,7 +9836,7 @@
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B258">
         <v>6</v>
@@ -9873,7 +9872,7 @@
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B259">
         <v>6</v>
@@ -9909,7 +9908,7 @@
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B260">
         <v>6</v>
@@ -9927,10 +9926,10 @@
         <v>20</v>
       </c>
       <c r="G260" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H260" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I260">
         <v>2.524</v>
@@ -9945,7 +9944,7 @@
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B261">
         <v>6</v>
@@ -9981,7 +9980,7 @@
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B262">
         <v>6</v>
@@ -10017,7 +10016,7 @@
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B263">
         <v>6</v>
@@ -10053,7 +10052,7 @@
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B264">
         <v>6</v>
@@ -10089,7 +10088,7 @@
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B265">
         <v>6</v>
@@ -10125,7 +10124,7 @@
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B266">
         <v>6</v>
@@ -10161,7 +10160,7 @@
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B267">
         <v>6</v>
@@ -10197,7 +10196,7 @@
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B268">
         <v>6</v>
@@ -10233,7 +10232,7 @@
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B269">
         <v>6</v>
@@ -10251,10 +10250,10 @@
         <v>20</v>
       </c>
       <c r="G269" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H269" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I269">
         <v>3.0859999999999999</v>
@@ -10269,7 +10268,7 @@
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B270">
         <v>6</v>
@@ -10305,7 +10304,7 @@
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B271">
         <v>6</v>
@@ -10341,7 +10340,7 @@
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B272">
         <v>6</v>
@@ -10377,7 +10376,7 @@
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B273">
         <v>6</v>
@@ -10413,7 +10412,7 @@
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B274">
         <v>6</v>
@@ -10449,7 +10448,7 @@
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B275">
         <v>6</v>
@@ -10485,7 +10484,7 @@
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B276">
         <v>6</v>
@@ -10521,7 +10520,7 @@
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B277">
         <v>6</v>
@@ -10557,7 +10556,7 @@
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B278">
         <v>6</v>
@@ -10593,7 +10592,7 @@
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B279">
         <v>6</v>
@@ -10629,7 +10628,7 @@
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B280">
         <v>6</v>
@@ -10665,7 +10664,7 @@
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B281">
         <v>6</v>
@@ -10701,7 +10700,7 @@
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B282">
         <v>6</v>
@@ -10737,7 +10736,7 @@
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B283">
         <v>6</v>
@@ -10773,7 +10772,7 @@
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B284">
         <v>7</v>
@@ -10809,7 +10808,7 @@
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B285">
         <v>7</v>
@@ -10845,7 +10844,7 @@
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B286">
         <v>7</v>
@@ -10881,7 +10880,7 @@
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B287">
         <v>7</v>
@@ -10917,7 +10916,7 @@
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B288">
         <v>7</v>
@@ -10953,7 +10952,7 @@
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B289">
         <v>7</v>
@@ -10989,7 +10988,7 @@
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B290">
         <v>7</v>
@@ -11025,7 +11024,7 @@
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B291">
         <v>7</v>
@@ -11061,7 +11060,7 @@
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B292">
         <v>7</v>
@@ -11097,7 +11096,7 @@
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B293">
         <v>7</v>
@@ -11133,7 +11132,7 @@
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B294">
         <v>7</v>
@@ -11169,7 +11168,7 @@
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B295">
         <v>7</v>
@@ -11205,7 +11204,7 @@
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B296">
         <v>7</v>
@@ -11241,7 +11240,7 @@
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B297">
         <v>7</v>
@@ -11277,7 +11276,7 @@
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B298">
         <v>7</v>
@@ -11313,7 +11312,7 @@
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B299">
         <v>7</v>
@@ -11349,7 +11348,7 @@
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B300">
         <v>7</v>
@@ -11385,7 +11384,7 @@
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B301">
         <v>7</v>
@@ -11421,7 +11420,7 @@
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B302">
         <v>7</v>
@@ -11457,7 +11456,7 @@
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B303">
         <v>7</v>
@@ -11493,7 +11492,7 @@
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B304">
         <v>7</v>
@@ -11529,7 +11528,7 @@
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B305">
         <v>7</v>
@@ -11565,7 +11564,7 @@
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B306">
         <v>7</v>
@@ -11601,7 +11600,7 @@
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B307">
         <v>7</v>
@@ -11637,7 +11636,7 @@
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B308">
         <v>7</v>
@@ -11673,7 +11672,7 @@
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B309">
         <v>7</v>
@@ -11709,7 +11708,7 @@
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B310">
         <v>7</v>
@@ -11745,7 +11744,7 @@
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B311">
         <v>7</v>
@@ -11781,7 +11780,7 @@
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B312">
         <v>7</v>
@@ -11817,7 +11816,7 @@
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B313">
         <v>7</v>
@@ -11853,7 +11852,7 @@
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B314">
         <v>7</v>
@@ -11889,7 +11888,7 @@
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B315">
         <v>7</v>
@@ -11925,7 +11924,7 @@
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B316">
         <v>7</v>
@@ -11961,7 +11960,7 @@
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B317">
         <v>7</v>
@@ -11997,7 +11996,7 @@
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B318">
         <v>7</v>
@@ -12033,7 +12032,7 @@
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B319">
         <v>8</v>
@@ -12069,7 +12068,7 @@
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B320">
         <v>8</v>
@@ -12105,7 +12104,7 @@
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B321">
         <v>8</v>
@@ -12141,7 +12140,7 @@
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B322">
         <v>8</v>
@@ -12177,7 +12176,7 @@
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B323">
         <v>8</v>
@@ -12213,7 +12212,7 @@
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B324">
         <v>8</v>
@@ -12249,7 +12248,7 @@
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B325">
         <v>8</v>
@@ -12285,7 +12284,7 @@
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B326">
         <v>8</v>
@@ -12321,7 +12320,7 @@
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B327">
         <v>8</v>
@@ -12357,7 +12356,7 @@
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B328">
         <v>8</v>
@@ -12393,7 +12392,7 @@
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B329">
         <v>8</v>
@@ -12429,7 +12428,7 @@
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B330">
         <v>8</v>
@@ -12465,7 +12464,7 @@
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B331">
         <v>8</v>
@@ -12501,7 +12500,7 @@
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B332">
         <v>8</v>
@@ -12537,7 +12536,7 @@
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B333">
         <v>8</v>
@@ -12573,7 +12572,7 @@
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B334">
         <v>8</v>
@@ -12609,7 +12608,7 @@
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B335">
         <v>8</v>
@@ -12645,7 +12644,7 @@
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B336">
         <v>8</v>
@@ -12681,7 +12680,7 @@
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B337">
         <v>8</v>
@@ -12717,7 +12716,7 @@
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B338">
         <v>8</v>
@@ -12753,7 +12752,7 @@
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B339">
         <v>8</v>
@@ -12789,7 +12788,7 @@
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B340">
         <v>8</v>
@@ -12825,7 +12824,7 @@
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B341">
         <v>8</v>
@@ -12861,7 +12860,7 @@
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B342">
         <v>8</v>
@@ -12897,7 +12896,7 @@
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B343">
         <v>8</v>
@@ -12933,7 +12932,7 @@
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B344">
         <v>8</v>
@@ -12969,7 +12968,7 @@
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B345">
         <v>8</v>
@@ -13005,7 +13004,7 @@
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B346">
         <v>8</v>
@@ -13041,7 +13040,7 @@
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B347">
         <v>8</v>
@@ -13077,7 +13076,7 @@
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B348">
         <v>8</v>
@@ -13113,7 +13112,7 @@
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B349">
         <v>8</v>
@@ -13149,7 +13148,7 @@
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B350">
         <v>8</v>
@@ -13185,7 +13184,7 @@
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B351">
         <v>8</v>
@@ -13221,7 +13220,7 @@
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B352">
         <v>8</v>
@@ -13257,7 +13256,7 @@
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B353">
         <v>8</v>
@@ -13293,7 +13292,7 @@
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B354">
         <v>9</v>
@@ -13329,7 +13328,7 @@
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B355">
         <v>9</v>
@@ -13365,7 +13364,7 @@
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B356">
         <v>9</v>
@@ -13401,7 +13400,7 @@
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B357">
         <v>9</v>
@@ -13437,7 +13436,7 @@
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B358">
         <v>9</v>
@@ -13473,7 +13472,7 @@
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B359">
         <v>9</v>
@@ -13509,7 +13508,7 @@
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B360">
         <v>9</v>
@@ -13545,7 +13544,7 @@
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B361">
         <v>9</v>
@@ -13581,7 +13580,7 @@
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B362">
         <v>9</v>
@@ -13617,7 +13616,7 @@
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B363">
         <v>9</v>
@@ -13653,7 +13652,7 @@
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B364">
         <v>9</v>
@@ -13689,7 +13688,7 @@
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B365">
         <v>9</v>
@@ -13725,7 +13724,7 @@
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B366">
         <v>9</v>
@@ -13761,7 +13760,7 @@
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B367">
         <v>9</v>
@@ -13797,7 +13796,7 @@
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B368">
         <v>9</v>
@@ -13833,7 +13832,7 @@
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B369">
         <v>9</v>
@@ -13869,7 +13868,7 @@
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B370">
         <v>9</v>
@@ -13905,7 +13904,7 @@
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B371">
         <v>9</v>
@@ -13941,7 +13940,7 @@
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B372">
         <v>9</v>
@@ -13977,7 +13976,7 @@
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B373">
         <v>9</v>
@@ -14013,7 +14012,7 @@
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B374">
         <v>9</v>
@@ -14049,7 +14048,7 @@
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B375">
         <v>9</v>
@@ -14085,7 +14084,7 @@
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B376">
         <v>9</v>
@@ -14121,7 +14120,7 @@
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B377">
         <v>9</v>
@@ -14157,7 +14156,7 @@
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B378">
         <v>9</v>
@@ -14193,7 +14192,7 @@
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B379">
         <v>9</v>
@@ -14229,7 +14228,7 @@
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B380">
         <v>9</v>
@@ -14265,7 +14264,7 @@
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B381">
         <v>9</v>
@@ -14301,7 +14300,7 @@
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B382">
         <v>9</v>
@@ -14337,7 +14336,7 @@
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B383">
         <v>9</v>
@@ -14373,7 +14372,7 @@
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B384">
         <v>9</v>
@@ -14409,7 +14408,7 @@
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B385">
         <v>9</v>
@@ -14445,7 +14444,7 @@
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B386">
         <v>9</v>
@@ -14481,7 +14480,7 @@
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B387">
         <v>9</v>
@@ -14517,7 +14516,7 @@
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B388">
         <v>9</v>
@@ -14553,7 +14552,7 @@
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B389">
         <v>9</v>
@@ -14589,7 +14588,7 @@
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B390">
         <v>9</v>
@@ -14625,7 +14624,7 @@
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B391">
         <v>9</v>
@@ -14661,7 +14660,7 @@
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B392">
         <v>9</v>
@@ -14697,7 +14696,7 @@
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B393">
         <v>9</v>
@@ -14733,7 +14732,7 @@
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B394">
         <v>9</v>
@@ -14769,7 +14768,7 @@
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B395">
         <v>9</v>
@@ -14805,7 +14804,7 @@
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B396">
         <v>9</v>
@@ -14841,7 +14840,7 @@
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B397">
         <v>9</v>
@@ -14877,7 +14876,7 @@
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B398">
         <v>9</v>
@@ -14913,7 +14912,7 @@
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B399">
         <v>9</v>
@@ -14949,7 +14948,7 @@
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B400">
         <v>9</v>
@@ -14985,7 +14984,7 @@
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B401">
         <v>9</v>
@@ -15021,7 +15020,7 @@
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B402">
         <v>9</v>
@@ -15057,7 +15056,7 @@
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B403">
         <v>9</v>
@@ -15093,7 +15092,7 @@
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B404">
         <v>9</v>
@@ -15129,7 +15128,7 @@
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B405">
         <v>9</v>
@@ -15165,7 +15164,7 @@
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B406">
         <v>9</v>
@@ -15201,7 +15200,7 @@
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B407">
         <v>9</v>
@@ -15237,7 +15236,7 @@
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B408">
         <v>9</v>
@@ -15273,7 +15272,7 @@
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B409">
         <v>10</v>
@@ -15309,7 +15308,7 @@
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B410">
         <v>10</v>
@@ -15345,7 +15344,7 @@
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B411">
         <v>10</v>
@@ -15381,7 +15380,7 @@
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B412">
         <v>10</v>
@@ -15417,7 +15416,7 @@
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B413">
         <v>10</v>
@@ -15453,7 +15452,7 @@
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B414">
         <v>10</v>
@@ -15489,7 +15488,7 @@
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B415">
         <v>10</v>
@@ -15525,7 +15524,7 @@
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B416">
         <v>10</v>
@@ -15561,7 +15560,7 @@
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B417">
         <v>10</v>
@@ -15597,7 +15596,7 @@
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B418">
         <v>10</v>
@@ -15633,7 +15632,7 @@
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B419">
         <v>10</v>
@@ -15669,7 +15668,7 @@
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B420">
         <v>10</v>
@@ -15705,7 +15704,7 @@
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B421">
         <v>10</v>
@@ -15741,7 +15740,7 @@
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B422">
         <v>10</v>
@@ -15777,7 +15776,7 @@
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B423">
         <v>10</v>
@@ -15813,7 +15812,7 @@
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B424">
         <v>10</v>
@@ -15849,7 +15848,7 @@
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B425">
         <v>10</v>
@@ -15885,7 +15884,7 @@
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B426">
         <v>10</v>
@@ -15921,7 +15920,7 @@
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B427">
         <v>10</v>
@@ -15957,7 +15956,7 @@
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B428">
         <v>10</v>
@@ -15993,7 +15992,7 @@
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B429">
         <v>10</v>
@@ -16029,7 +16028,7 @@
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B430">
         <v>10</v>
@@ -16065,7 +16064,7 @@
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B431">
         <v>10</v>
@@ -16101,7 +16100,7 @@
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B432">
         <v>10</v>
@@ -16137,7 +16136,7 @@
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B433">
         <v>10</v>
@@ -16173,7 +16172,7 @@
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B434">
         <v>11</v>
@@ -16209,7 +16208,7 @@
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B435">
         <v>11</v>
@@ -16245,7 +16244,7 @@
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B436">
         <v>11</v>
@@ -16281,7 +16280,7 @@
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B437">
         <v>11</v>
@@ -16317,7 +16316,7 @@
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B438">
         <v>11</v>
@@ -16353,7 +16352,7 @@
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B439">
         <v>11</v>
@@ -16389,7 +16388,7 @@
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B440">
         <v>11</v>
@@ -16425,7 +16424,7 @@
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B441">
         <v>11</v>
@@ -16461,7 +16460,7 @@
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B442">
         <v>11</v>
@@ -16497,7 +16496,7 @@
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B443">
         <v>11</v>
@@ -16533,7 +16532,7 @@
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B444">
         <v>11</v>
@@ -16569,7 +16568,7 @@
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B445">
         <v>11</v>
@@ -16605,7 +16604,7 @@
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B446">
         <v>11</v>
@@ -16641,7 +16640,7 @@
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B447">
         <v>11</v>
@@ -16677,7 +16676,7 @@
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B448">
         <v>11</v>
@@ -16713,7 +16712,7 @@
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B449">
         <v>11</v>
@@ -16749,7 +16748,7 @@
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B450">
         <v>11</v>
@@ -16767,10 +16766,10 @@
         <v>20</v>
       </c>
       <c r="G450" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H450" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I450">
         <v>5.6870000000000003</v>
@@ -16785,7 +16784,7 @@
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B451">
         <v>11</v>
@@ -16821,7 +16820,7 @@
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B452">
         <v>11</v>
@@ -16857,7 +16856,7 @@
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B453">
         <v>11</v>
@@ -16893,7 +16892,7 @@
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B454">
         <v>11</v>
@@ -16929,7 +16928,7 @@
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B455">
         <v>11</v>
@@ -16965,7 +16964,7 @@
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B456">
         <v>11</v>
@@ -17001,7 +17000,7 @@
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B457">
         <v>11</v>
@@ -17037,7 +17036,7 @@
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B458">
         <v>11</v>
@@ -17073,7 +17072,7 @@
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B459">
         <v>11</v>
@@ -17109,7 +17108,7 @@
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B460">
         <v>11</v>
@@ -17145,7 +17144,7 @@
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B461">
         <v>11</v>
@@ -17181,7 +17180,7 @@
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B462">
         <v>11</v>
@@ -17217,7 +17216,7 @@
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B463">
         <v>11</v>
@@ -17235,10 +17234,10 @@
         <v>20</v>
       </c>
       <c r="G463" t="s">
+        <v>49</v>
+      </c>
+      <c r="H463" t="s">
         <v>50</v>
-      </c>
-      <c r="H463" t="s">
-        <v>51</v>
       </c>
       <c r="I463">
         <v>1.6519999999999999</v>
@@ -17253,7 +17252,7 @@
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B464">
         <v>11</v>
@@ -17289,7 +17288,7 @@
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B465">
         <v>11</v>
@@ -17325,7 +17324,7 @@
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B466">
         <v>11</v>
@@ -17343,10 +17342,10 @@
         <v>20</v>
       </c>
       <c r="G466" t="s">
+        <v>51</v>
+      </c>
+      <c r="H466" t="s">
         <v>52</v>
-      </c>
-      <c r="H466" t="s">
-        <v>53</v>
       </c>
       <c r="I466">
         <v>1.74</v>
@@ -17361,7 +17360,7 @@
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B467">
         <v>11</v>
@@ -17397,7 +17396,7 @@
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B468">
         <v>11</v>
@@ -17433,7 +17432,7 @@
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B469">
         <v>11</v>
@@ -17469,7 +17468,7 @@
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B470">
         <v>12</v>
@@ -17505,7 +17504,7 @@
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B471">
         <v>12</v>
@@ -17541,7 +17540,7 @@
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B472">
         <v>12</v>
@@ -17577,7 +17576,7 @@
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B473">
         <v>12</v>
@@ -17613,7 +17612,7 @@
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B474">
         <v>12</v>
@@ -17649,7 +17648,7 @@
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B475">
         <v>12</v>
@@ -17685,7 +17684,7 @@
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B476">
         <v>12</v>
@@ -17721,7 +17720,7 @@
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B477">
         <v>12</v>
@@ -17757,7 +17756,7 @@
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B478">
         <v>12</v>
@@ -17793,7 +17792,7 @@
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B479">
         <v>12</v>
@@ -17829,7 +17828,7 @@
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B480">
         <v>12</v>
@@ -17865,7 +17864,7 @@
     </row>
     <row r="481" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B481">
         <v>12</v>
@@ -17901,7 +17900,7 @@
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B482">
         <v>12</v>
@@ -17937,7 +17936,7 @@
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B483">
         <v>12</v>
@@ -17973,7 +17972,7 @@
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B484">
         <v>12</v>
@@ -18009,7 +18008,7 @@
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B485">
         <v>12</v>
@@ -18045,7 +18044,7 @@
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B486">
         <v>12</v>
@@ -18081,7 +18080,7 @@
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B487">
         <v>12</v>
@@ -18117,7 +18116,7 @@
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B488">
         <v>12</v>
@@ -18153,7 +18152,7 @@
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B489">
         <v>12</v>
@@ -18189,7 +18188,7 @@
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B490">
         <v>12</v>
@@ -18225,7 +18224,7 @@
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B491">
         <v>12</v>
@@ -18261,7 +18260,7 @@
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B492">
         <v>12</v>
@@ -18297,7 +18296,7 @@
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B493">
         <v>12</v>
@@ -18333,7 +18332,7 @@
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B494">
         <v>12</v>
@@ -18369,7 +18368,7 @@
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B495">
         <v>12</v>
@@ -18405,7 +18404,7 @@
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B496">
         <v>12</v>
@@ -18441,7 +18440,7 @@
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B497">
         <v>12</v>
@@ -18477,7 +18476,7 @@
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B498">
         <v>12</v>
@@ -18513,7 +18512,7 @@
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B499">
         <v>12</v>
@@ -18549,7 +18548,7 @@
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B500">
         <v>12</v>
@@ -18585,7 +18584,7 @@
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B501">
         <v>12</v>
@@ -18621,7 +18620,7 @@
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B502">
         <v>13</v>
@@ -18657,7 +18656,7 @@
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B503">
         <v>13</v>
@@ -18693,7 +18692,7 @@
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B504">
         <v>13</v>
@@ -18729,7 +18728,7 @@
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B505">
         <v>13</v>
@@ -18765,7 +18764,7 @@
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B506">
         <v>13</v>
@@ -18801,7 +18800,7 @@
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B507">
         <v>13</v>
@@ -18837,7 +18836,7 @@
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B508">
         <v>13</v>
@@ -18873,7 +18872,7 @@
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B509">
         <v>13</v>
@@ -18909,7 +18908,7 @@
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B510">
         <v>13</v>
@@ -18945,7 +18944,7 @@
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B511">
         <v>13</v>
@@ -18981,7 +18980,7 @@
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B512">
         <v>13</v>
@@ -19017,7 +19016,7 @@
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B513">
         <v>13</v>
@@ -19053,7 +19052,7 @@
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B514">
         <v>13</v>
@@ -19089,7 +19088,7 @@
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B515">
         <v>13</v>
@@ -19125,7 +19124,7 @@
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B516">
         <v>13</v>
@@ -19161,7 +19160,7 @@
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B517">
         <v>13</v>
@@ -19197,7 +19196,7 @@
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B518">
         <v>13</v>
@@ -19233,7 +19232,7 @@
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B519">
         <v>13</v>
@@ -19269,7 +19268,7 @@
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B520">
         <v>13</v>
@@ -19305,7 +19304,7 @@
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B521">
         <v>13</v>
@@ -19341,7 +19340,7 @@
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B522">
         <v>13</v>
@@ -19377,7 +19376,7 @@
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B523">
         <v>13</v>
@@ -19413,7 +19412,7 @@
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B524">
         <v>13</v>
@@ -19449,7 +19448,7 @@
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B525">
         <v>13</v>
@@ -19485,7 +19484,7 @@
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B526">
         <v>13</v>
@@ -19521,7 +19520,7 @@
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B527">
         <v>13</v>
@@ -19557,7 +19556,7 @@
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B528">
         <v>13</v>
@@ -19593,7 +19592,7 @@
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B529">
         <v>13</v>
@@ -19629,7 +19628,7 @@
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B530">
         <v>13</v>
@@ -19665,7 +19664,7 @@
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B531">
         <v>13</v>
@@ -19701,7 +19700,7 @@
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B532">
         <v>13</v>
@@ -19737,7 +19736,7 @@
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B533">
         <v>13</v>
@@ -19773,7 +19772,7 @@
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B534">
         <v>13</v>
@@ -19809,7 +19808,7 @@
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B535">
         <v>13</v>
@@ -19845,7 +19844,7 @@
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B536">
         <v>13</v>
@@ -19881,7 +19880,7 @@
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B537">
         <v>13</v>
@@ -19917,7 +19916,7 @@
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B538">
         <v>13</v>
@@ -19953,7 +19952,7 @@
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B539">
         <v>13</v>
@@ -19989,7 +19988,7 @@
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B540">
         <v>13</v>
@@ -20025,7 +20024,7 @@
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B541">
         <v>13</v>
@@ -20061,7 +20060,7 @@
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B542">
         <v>13</v>
@@ -20097,7 +20096,7 @@
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B543">
         <v>13</v>
@@ -20133,7 +20132,7 @@
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B544">
         <v>13</v>
@@ -20169,7 +20168,7 @@
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B545">
         <v>13</v>
@@ -20205,7 +20204,7 @@
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B546">
         <v>14</v>
@@ -20241,7 +20240,7 @@
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B547">
         <v>14</v>
@@ -20277,7 +20276,7 @@
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B548">
         <v>14</v>
@@ -20313,7 +20312,7 @@
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B549">
         <v>14</v>
@@ -20330,11 +20329,11 @@
       <c r="F549">
         <v>20</v>
       </c>
-      <c r="G549" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H549" s="6" t="s">
-        <v>65</v>
+      <c r="G549" t="s">
+        <v>56</v>
+      </c>
+      <c r="H549" t="s">
+        <v>64</v>
       </c>
       <c r="I549">
         <v>3.3380000000000001</v>
@@ -20349,7 +20348,7 @@
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B550">
         <v>14</v>
@@ -20385,7 +20384,7 @@
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B551">
         <v>14</v>
@@ -20421,7 +20420,7 @@
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B552">
         <v>14</v>
@@ -20438,11 +20437,11 @@
       <c r="F552">
         <v>20</v>
       </c>
-      <c r="G552" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H552" s="6" t="s">
-        <v>65</v>
+      <c r="G552" t="s">
+        <v>56</v>
+      </c>
+      <c r="H552" t="s">
+        <v>64</v>
       </c>
       <c r="I552">
         <v>4.1920000000000002</v>
@@ -20457,7 +20456,7 @@
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B553">
         <v>14</v>
@@ -20493,7 +20492,7 @@
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B554">
         <v>14</v>
@@ -20529,7 +20528,7 @@
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B555">
         <v>14</v>
@@ -20565,7 +20564,7 @@
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B556">
         <v>14</v>
@@ -20601,7 +20600,7 @@
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B557">
         <v>14</v>
@@ -20637,7 +20636,7 @@
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B558">
         <v>14</v>
@@ -20673,7 +20672,7 @@
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B559">
         <v>14</v>
@@ -20709,7 +20708,7 @@
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B560">
         <v>14</v>
@@ -20745,7 +20744,7 @@
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B561">
         <v>14</v>
@@ -20781,7 +20780,7 @@
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B562">
         <v>14</v>
@@ -20817,7 +20816,7 @@
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B563">
         <v>14</v>
@@ -20853,7 +20852,7 @@
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B564">
         <v>14</v>
@@ -20889,7 +20888,7 @@
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B565">
         <v>14</v>
@@ -20925,7 +20924,7 @@
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B566">
         <v>14</v>
@@ -20961,7 +20960,7 @@
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B567">
         <v>14</v>
@@ -20997,7 +20996,7 @@
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B568">
         <v>14</v>
@@ -21033,7 +21032,7 @@
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B569">
         <v>14</v>
@@ -21069,7 +21068,7 @@
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B570">
         <v>14</v>
@@ -21105,7 +21104,7 @@
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B571">
         <v>14</v>
@@ -21141,7 +21140,7 @@
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B572">
         <v>14</v>
@@ -21177,7 +21176,7 @@
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B573">
         <v>14</v>
@@ -21213,7 +21212,7 @@
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B574">
         <v>14</v>
@@ -21249,7 +21248,7 @@
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B575">
         <v>14</v>
@@ -21285,7 +21284,7 @@
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B576">
         <v>14</v>
@@ -21302,11 +21301,11 @@
       <c r="F576">
         <v>20</v>
       </c>
-      <c r="G576" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H576" s="6" t="s">
-        <v>65</v>
+      <c r="G576" t="s">
+        <v>56</v>
+      </c>
+      <c r="H576" t="s">
+        <v>64</v>
       </c>
       <c r="I576">
         <v>4.1520000000000001</v>
@@ -21321,7 +21320,7 @@
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B577">
         <v>14</v>
@@ -21357,7 +21356,7 @@
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B578">
         <v>14</v>
@@ -21374,11 +21373,11 @@
       <c r="F578">
         <v>20</v>
       </c>
-      <c r="G578" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H578" s="6" t="s">
-        <v>65</v>
+      <c r="G578" t="s">
+        <v>56</v>
+      </c>
+      <c r="H578" t="s">
+        <v>64</v>
       </c>
       <c r="I578">
         <v>4.3230000000000004</v>
@@ -21393,7 +21392,7 @@
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B579">
         <v>14</v>
@@ -21429,7 +21428,7 @@
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B580">
         <v>14</v>
@@ -21465,7 +21464,7 @@
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B581">
         <v>14</v>
@@ -21482,11 +21481,11 @@
       <c r="F581">
         <v>20</v>
       </c>
-      <c r="G581" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H581" s="6" t="s">
-        <v>65</v>
+      <c r="G581" t="s">
+        <v>56</v>
+      </c>
+      <c r="H581" t="s">
+        <v>64</v>
       </c>
       <c r="I581">
         <v>5.0659999999999998</v>
@@ -21501,7 +21500,7 @@
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B582">
         <v>14</v>
@@ -21537,7 +21536,7 @@
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B583">
         <v>14</v>
@@ -21573,7 +21572,7 @@
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B584">
         <v>14</v>
@@ -21609,7 +21608,7 @@
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B585">
         <v>14</v>
@@ -21645,7 +21644,7 @@
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B586">
         <v>14</v>
@@ -21681,7 +21680,7 @@
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B587">
         <v>14</v>
@@ -21717,7 +21716,7 @@
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B588">
         <v>14</v>
@@ -21753,7 +21752,7 @@
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B589">
         <v>14</v>
@@ -21789,7 +21788,7 @@
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B590">
         <v>14</v>
@@ -21825,7 +21824,7 @@
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B591">
         <v>14</v>
@@ -21861,7 +21860,7 @@
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B592">
         <v>14</v>
@@ -21897,7 +21896,7 @@
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B593">
         <v>14</v>
@@ -21933,7 +21932,7 @@
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B594">
         <v>14</v>
@@ -21969,7 +21968,7 @@
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B595">
         <v>14</v>
@@ -22005,7 +22004,7 @@
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B596">
         <v>14</v>
@@ -22041,7 +22040,7 @@
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B597">
         <v>14</v>
@@ -22077,7 +22076,7 @@
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B598">
         <v>14</v>
@@ -22113,7 +22112,7 @@
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B599">
         <v>14</v>
@@ -22149,7 +22148,7 @@
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B600">
         <v>14</v>
@@ -22185,7 +22184,7 @@
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B601">
         <v>14</v>
@@ -22221,7 +22220,7 @@
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B602">
         <v>14</v>
@@ -22257,7 +22256,7 @@
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B603">
         <v>14</v>
@@ -22293,7 +22292,7 @@
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B604">
         <v>14</v>
@@ -22329,7 +22328,7 @@
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B605">
         <v>14</v>
@@ -22365,7 +22364,7 @@
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B606">
         <v>14</v>
@@ -22401,7 +22400,7 @@
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B607">
         <v>14</v>
@@ -22437,7 +22436,7 @@
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B608">
         <v>14</v>
@@ -22473,7 +22472,7 @@
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B609">
         <v>14</v>
@@ -22509,7 +22508,7 @@
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B610">
         <v>14</v>
@@ -22545,7 +22544,7 @@
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B611">
         <v>14</v>
@@ -22581,7 +22580,7 @@
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B612">
         <v>14</v>
@@ -22617,7 +22616,7 @@
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B613">
         <v>14</v>
@@ -22653,7 +22652,7 @@
     </row>
     <row r="614" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B614">
         <v>14</v>
@@ -22689,7 +22688,7 @@
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B615">
         <v>14</v>
@@ -22725,7 +22724,7 @@
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B616">
         <v>14</v>
@@ -22761,7 +22760,7 @@
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B617">
         <v>14</v>
@@ -22797,7 +22796,7 @@
     </row>
     <row r="618" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B618">
         <v>14</v>
@@ -22833,7 +22832,7 @@
     </row>
     <row r="619" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B619">
         <v>14</v>
@@ -22869,7 +22868,7 @@
     </row>
     <row r="620" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B620">
         <v>14</v>
@@ -22905,7 +22904,7 @@
     </row>
     <row r="621" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B621">
         <v>15</v>
@@ -22941,7 +22940,7 @@
     </row>
     <row r="622" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B622">
         <v>15</v>
@@ -22977,7 +22976,7 @@
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B623">
         <v>15</v>
@@ -23013,7 +23012,7 @@
     </row>
     <row r="624" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B624">
         <v>15</v>
@@ -23031,10 +23030,10 @@
         <v>20</v>
       </c>
       <c r="G624" t="s">
+        <v>58</v>
+      </c>
+      <c r="H624" t="s">
         <v>59</v>
-      </c>
-      <c r="H624" t="s">
-        <v>60</v>
       </c>
       <c r="I624">
         <v>3.6619999999999999</v>
@@ -23049,7 +23048,7 @@
     </row>
     <row r="625" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B625">
         <v>15</v>
@@ -23067,10 +23066,10 @@
         <v>20</v>
       </c>
       <c r="G625" t="s">
+        <v>60</v>
+      </c>
+      <c r="H625" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="H625" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="I625">
         <v>3.82</v>
@@ -23085,7 +23084,7 @@
     </row>
     <row r="626" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B626">
         <v>15</v>
@@ -23121,7 +23120,7 @@
     </row>
     <row r="627" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B627">
         <v>15</v>
@@ -23157,7 +23156,7 @@
     </row>
     <row r="628" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B628">
         <v>15</v>
@@ -23175,10 +23174,10 @@
         <v>20</v>
       </c>
       <c r="G628" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H628" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I628">
         <v>4.2460000000000004</v>
@@ -23193,7 +23192,7 @@
     </row>
     <row r="629" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B629">
         <v>15</v>
@@ -23229,7 +23228,7 @@
     </row>
     <row r="630" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B630">
         <v>15</v>
@@ -23265,7 +23264,7 @@
     </row>
     <row r="631" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B631">
         <v>15</v>
@@ -23301,7 +23300,7 @@
     </row>
     <row r="632" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B632">
         <v>15</v>
@@ -23337,7 +23336,7 @@
     </row>
     <row r="633" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B633">
         <v>15</v>
@@ -23373,7 +23372,7 @@
     </row>
     <row r="634" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B634">
         <v>15</v>
@@ -23391,10 +23390,10 @@
         <v>20</v>
       </c>
       <c r="G634" t="s">
+        <v>49</v>
+      </c>
+      <c r="H634" t="s">
         <v>50</v>
-      </c>
-      <c r="H634" t="s">
-        <v>51</v>
       </c>
       <c r="I634">
         <v>6.0049999999999999</v>
@@ -23409,7 +23408,7 @@
     </row>
     <row r="635" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B635">
         <v>15</v>
@@ -23427,10 +23426,10 @@
         <v>20</v>
       </c>
       <c r="G635" t="s">
+        <v>49</v>
+      </c>
+      <c r="H635" t="s">
         <v>50</v>
-      </c>
-      <c r="H635" t="s">
-        <v>51</v>
       </c>
       <c r="I635">
         <v>6.968</v>
@@ -23445,7 +23444,7 @@
     </row>
     <row r="636" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B636">
         <v>15</v>
@@ -23481,7 +23480,7 @@
     </row>
     <row r="637" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B637">
         <v>15</v>
@@ -23517,7 +23516,7 @@
     </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B638">
         <v>15</v>
@@ -23553,7 +23552,7 @@
     </row>
     <row r="639" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B639">
         <v>15</v>
@@ -23571,10 +23570,10 @@
         <v>20</v>
       </c>
       <c r="G639" t="s">
+        <v>49</v>
+      </c>
+      <c r="H639" t="s">
         <v>50</v>
-      </c>
-      <c r="H639" t="s">
-        <v>51</v>
       </c>
       <c r="I639">
         <v>10.07</v>
@@ -23589,7 +23588,7 @@
     </row>
     <row r="640" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B640">
         <v>15</v>
@@ -23625,7 +23624,7 @@
     </row>
     <row r="641" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B641">
         <v>15</v>
@@ -23643,10 +23642,10 @@
         <v>20</v>
       </c>
       <c r="G641" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H641" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I641">
         <v>3.383</v>
@@ -23661,7 +23660,7 @@
     </row>
     <row r="642" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B642">
         <v>15</v>
@@ -23697,7 +23696,7 @@
     </row>
     <row r="643" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B643">
         <v>15</v>
@@ -23733,7 +23732,7 @@
     </row>
     <row r="644" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B644">
         <v>15</v>
@@ -23769,7 +23768,7 @@
     </row>
     <row r="645" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B645">
         <v>15</v>
@@ -23787,10 +23786,10 @@
         <v>20</v>
       </c>
       <c r="G645" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H645" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I645">
         <v>5.0720000000000001</v>
@@ -23805,7 +23804,7 @@
     </row>
     <row r="646" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B646">
         <v>15</v>
@@ -23841,7 +23840,7 @@
     </row>
     <row r="647" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B647">
         <v>15</v>
@@ -23877,7 +23876,7 @@
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B648">
         <v>15</v>
@@ -23913,7 +23912,7 @@
     </row>
     <row r="649" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B649">
         <v>15</v>
@@ -23949,7 +23948,7 @@
     </row>
     <row r="650" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B650">
         <v>15</v>
@@ -23985,7 +23984,7 @@
     </row>
     <row r="651" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B651">
         <v>15</v>
@@ -24003,10 +24002,10 @@
         <v>20</v>
       </c>
       <c r="G651" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H651" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I651">
         <v>3.41</v>
@@ -24021,7 +24020,7 @@
     </row>
     <row r="652" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B652">
         <v>15</v>
@@ -24057,7 +24056,7 @@
     </row>
     <row r="653" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B653">
         <v>15</v>
